--- a/data/unchecked/manual_collect/china/shandong/shandongCaseStatistics_20200326.xlsx
+++ b/data/unchecked/manual_collect/china/shandong/shandongCaseStatistics_20200326.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\shandong\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CC21AD-5E87-4078-AE93-4919CCFD6EB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -525,6 +531,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="华文宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年</t>
@@ -535,7 +542,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -545,6 +552,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="华文宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -555,7 +563,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>26</t>
     </r>
@@ -565,6 +573,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="华文宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
@@ -575,7 +584,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -585,6 +594,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="华文宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>时至</t>
@@ -595,7 +605,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>24</t>
     </r>
@@ -605,6 +615,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="华文宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>时山东省新型冠状病毒肺炎疫情情况</t>
@@ -10391,16 +10402,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10469,14 +10476,14 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="-webkit-standard"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -10487,157 +10494,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="华文宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10656,194 +10521,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -10851,249 +10530,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11151,63 +10591,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -11465,55 +10862,55 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9230769230769" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.9230769230769" style="11" customWidth="1"/>
-    <col min="2" max="2" width="45.9230769230769" style="11" customWidth="1"/>
-    <col min="3" max="3" width="31.9230769230769" style="12" customWidth="1"/>
-    <col min="4" max="4" width="31.9230769230769" style="11" customWidth="1"/>
-    <col min="5" max="5" width="5.07692307692308" style="11" customWidth="1"/>
-    <col min="6" max="6" width="27.3846153846154" style="11" customWidth="1"/>
+    <col min="1" max="1" width="11.90625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="45.90625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="31.90625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="31.90625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="5.08984375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" style="11" customWidth="1"/>
     <col min="7" max="7" width="44" style="11" customWidth="1"/>
-    <col min="8" max="8" width="16.0769230769231" style="11" customWidth="1"/>
-    <col min="9" max="16" width="12.4615384615385" style="11" customWidth="1"/>
-    <col min="17" max="18" width="26.6153846153846" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="11" customWidth="1"/>
+    <col min="9" max="16" width="12.453125" style="11" customWidth="1"/>
+    <col min="17" max="18" width="26.6328125" style="11" customWidth="1"/>
     <col min="19" max="19" width="7" style="11" customWidth="1"/>
-    <col min="20" max="20" width="31.9230769230769" style="12" customWidth="1"/>
+    <col min="20" max="20" width="31.90625" style="12" customWidth="1"/>
     <col min="21" max="21" width="18" style="11" customWidth="1"/>
-    <col min="22" max="22" width="10.6153846153846" style="11" customWidth="1"/>
-    <col min="23" max="23" width="31.9230769230769" style="11" customWidth="1"/>
-    <col min="24" max="24" width="16.0769230769231" style="11" customWidth="1"/>
+    <col min="22" max="22" width="10.6328125" style="11" customWidth="1"/>
+    <col min="23" max="23" width="31.90625" style="11" customWidth="1"/>
+    <col min="24" max="24" width="16.08984375" style="11" customWidth="1"/>
     <col min="25" max="25" width="20" style="11" customWidth="1"/>
-    <col min="26" max="26" width="31.9230769230769" style="11" customWidth="1"/>
-    <col min="27" max="27" width="21.9230769230769" style="11" customWidth="1"/>
-    <col min="28" max="28" width="20.9230769230769" style="11" customWidth="1"/>
-    <col min="29" max="29" width="25.4615384615385" style="11" customWidth="1"/>
-    <col min="30" max="30" width="31.9230769230769" style="11" customWidth="1"/>
-    <col min="31" max="31" width="21.9230769230769" style="11" customWidth="1"/>
-    <col min="32" max="32" width="24.4615384615385" style="11" customWidth="1"/>
+    <col min="26" max="26" width="31.90625" style="11" customWidth="1"/>
+    <col min="27" max="27" width="21.90625" style="11" customWidth="1"/>
+    <col min="28" max="28" width="20.90625" style="11" customWidth="1"/>
+    <col min="29" max="29" width="25.453125" style="11" customWidth="1"/>
+    <col min="30" max="30" width="31.90625" style="11" customWidth="1"/>
+    <col min="31" max="31" width="21.90625" style="11" customWidth="1"/>
+    <col min="32" max="32" width="24.453125" style="11" customWidth="1"/>
     <col min="33" max="33" width="31" style="11" customWidth="1"/>
-    <col min="34" max="34" width="8.92307692307692" style="11" customWidth="1"/>
-    <col min="35" max="36" width="31.9230769230769" style="11" customWidth="1"/>
-    <col min="37" max="37" width="21.9230769230769" style="11" customWidth="1"/>
-    <col min="38" max="38" width="24.4615384615385" style="11" customWidth="1"/>
+    <col min="34" max="34" width="8.90625" style="11" customWidth="1"/>
+    <col min="35" max="36" width="31.90625" style="11" customWidth="1"/>
+    <col min="37" max="37" width="21.90625" style="11" customWidth="1"/>
+    <col min="38" max="38" width="24.453125" style="11" customWidth="1"/>
     <col min="39" max="39" width="31" style="11" customWidth="1"/>
-    <col min="40" max="40" width="5.07692307692308" style="11" customWidth="1"/>
-    <col min="41" max="16384" width="10.9230769230769" style="11"/>
+    <col min="40" max="40" width="5.08984375" style="11" customWidth="1"/>
+    <col min="41" max="16384" width="10.90625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:40">
+    <row r="1" spans="1:40" s="10" customFormat="1" ht="16.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -11635,7 +11032,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" ht="26" spans="1:36">
+    <row r="2" spans="1:40" ht="25.8">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -11677,7 +11074,7 @@
         <v>43</v>
       </c>
       <c r="T2" s="21">
-        <v>43917.3611111111</v>
+        <v>43917.361111111102</v>
       </c>
       <c r="U2" s="22" t="s">
         <v>44</v>
@@ -11687,7 +11084,7 @@
       </c>
       <c r="W2" s="12"/>
       <c r="Z2" s="21">
-        <v>43917.3833333333</v>
+        <v>43917.383333333302</v>
       </c>
       <c r="AA2" s="11" t="s">
         <v>46</v>
@@ -11699,7 +11096,7 @@
         <v>48</v>
       </c>
       <c r="AD2" s="12">
-        <v>43917.4236111111</v>
+        <v>43917.423611111102</v>
       </c>
       <c r="AE2" s="11" t="s">
         <v>46</v>
@@ -11713,7 +11110,7 @@
       <c r="AI2" s="12"/>
       <c r="AJ2" s="12"/>
     </row>
-    <row r="3" ht="26" spans="1:33">
+    <row r="3" spans="1:40" ht="25.8">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -11747,7 +11144,7 @@
         <v>43</v>
       </c>
       <c r="T3" s="21">
-        <v>43917.3611111111</v>
+        <v>43917.361111111102</v>
       </c>
       <c r="U3" s="22" t="s">
         <v>44</v>
@@ -11756,7 +11153,7 @@
         <v>45</v>
       </c>
       <c r="Z3" s="21">
-        <v>43917.3833333333</v>
+        <v>43917.383333333302</v>
       </c>
       <c r="AA3" s="11" t="s">
         <v>46</v>
@@ -11768,7 +11165,7 @@
         <v>48</v>
       </c>
       <c r="AD3" s="12">
-        <v>43917.4236111111</v>
+        <v>43917.423611111102</v>
       </c>
       <c r="AE3" s="11" t="s">
         <v>46</v>
@@ -11780,7 +11177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="26" spans="1:33">
+    <row r="4" spans="1:40" ht="25.8">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -11817,7 +11214,7 @@
         <v>43</v>
       </c>
       <c r="T4" s="21">
-        <v>43917.3611111111</v>
+        <v>43917.361111111102</v>
       </c>
       <c r="U4" s="22" t="s">
         <v>44</v>
@@ -11826,7 +11223,7 @@
         <v>45</v>
       </c>
       <c r="Z4" s="21">
-        <v>43917.3833333333</v>
+        <v>43917.383333333302</v>
       </c>
       <c r="AA4" s="11" t="s">
         <v>46</v>
@@ -11838,7 +11235,7 @@
         <v>48</v>
       </c>
       <c r="AD4" s="12">
-        <v>43917.4236111111</v>
+        <v>43917.423611111102</v>
       </c>
       <c r="AE4" s="11" t="s">
         <v>46</v>
@@ -11850,7 +11247,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" ht="26" spans="1:33">
+    <row r="5" spans="1:40" ht="25.8">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -11887,7 +11284,7 @@
         <v>43</v>
       </c>
       <c r="T5" s="21">
-        <v>43917.3611111111</v>
+        <v>43917.361111111102</v>
       </c>
       <c r="U5" s="22" t="s">
         <v>44</v>
@@ -11896,7 +11293,7 @@
         <v>45</v>
       </c>
       <c r="Z5" s="21">
-        <v>43917.3833333333</v>
+        <v>43917.383333333302</v>
       </c>
       <c r="AA5" s="11" t="s">
         <v>46</v>
@@ -11908,7 +11305,7 @@
         <v>48</v>
       </c>
       <c r="AD5" s="12">
-        <v>43917.4236111111</v>
+        <v>43917.423611111102</v>
       </c>
       <c r="AE5" s="11" t="s">
         <v>46</v>
@@ -11920,7 +11317,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" ht="26" spans="1:33">
+    <row r="6" spans="1:40" ht="25.8">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -11954,7 +11351,7 @@
         <v>43</v>
       </c>
       <c r="T6" s="21">
-        <v>43917.3611111111</v>
+        <v>43917.361111111102</v>
       </c>
       <c r="U6" s="22" t="s">
         <v>44</v>
@@ -11963,7 +11360,7 @@
         <v>45</v>
       </c>
       <c r="Z6" s="21">
-        <v>43917.3833333333</v>
+        <v>43917.383333333302</v>
       </c>
       <c r="AA6" s="11" t="s">
         <v>46</v>
@@ -11975,7 +11372,7 @@
         <v>48</v>
       </c>
       <c r="AD6" s="12">
-        <v>43917.4236111111</v>
+        <v>43917.423611111102</v>
       </c>
       <c r="AE6" s="11" t="s">
         <v>46</v>
@@ -11987,7 +11384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" ht="26" spans="1:33">
+    <row r="7" spans="1:40" ht="25.8">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -12017,7 +11414,7 @@
         <v>43</v>
       </c>
       <c r="T7" s="21">
-        <v>43917.3611111111</v>
+        <v>43917.361111111102</v>
       </c>
       <c r="U7" s="22" t="s">
         <v>44</v>
@@ -12026,7 +11423,7 @@
         <v>45</v>
       </c>
       <c r="Z7" s="21">
-        <v>43917.3833333333</v>
+        <v>43917.383333333302</v>
       </c>
       <c r="AA7" s="11" t="s">
         <v>46</v>
@@ -12038,7 +11435,7 @@
         <v>48</v>
       </c>
       <c r="AD7" s="12">
-        <v>43917.4236111111</v>
+        <v>43917.423611111102</v>
       </c>
       <c r="AE7" s="11" t="s">
         <v>46</v>
@@ -12050,7 +11447,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" ht="26" spans="1:33">
+    <row r="8" spans="1:40" ht="25.8">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -12084,7 +11481,7 @@
         <v>43</v>
       </c>
       <c r="T8" s="21">
-        <v>43917.3611111111</v>
+        <v>43917.361111111102</v>
       </c>
       <c r="U8" s="22" t="s">
         <v>44</v>
@@ -12093,7 +11490,7 @@
         <v>45</v>
       </c>
       <c r="Z8" s="21">
-        <v>43917.3833333333</v>
+        <v>43917.383333333302</v>
       </c>
       <c r="AA8" s="11" t="s">
         <v>46</v>
@@ -12105,7 +11502,7 @@
         <v>48</v>
       </c>
       <c r="AD8" s="12">
-        <v>43917.4236111111</v>
+        <v>43917.423611111102</v>
       </c>
       <c r="AE8" s="11" t="s">
         <v>46</v>
@@ -12117,7 +11514,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" ht="26" spans="1:33">
+    <row r="9" spans="1:40" ht="25.8">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -12151,7 +11548,7 @@
         <v>43</v>
       </c>
       <c r="T9" s="21">
-        <v>43917.3611111111</v>
+        <v>43917.361111111102</v>
       </c>
       <c r="U9" s="22" t="s">
         <v>44</v>
@@ -12160,7 +11557,7 @@
         <v>45</v>
       </c>
       <c r="Z9" s="21">
-        <v>43917.3833333333</v>
+        <v>43917.383333333302</v>
       </c>
       <c r="AA9" s="11" t="s">
         <v>46</v>
@@ -12172,7 +11569,7 @@
         <v>48</v>
       </c>
       <c r="AD9" s="12">
-        <v>43917.4236111111</v>
+        <v>43917.423611111102</v>
       </c>
       <c r="AE9" s="11" t="s">
         <v>46</v>
@@ -12184,7 +11581,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" ht="26" spans="1:33">
+    <row r="10" spans="1:40" ht="25.8">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -12217,7 +11614,7 @@
         <v>43</v>
       </c>
       <c r="T10" s="21">
-        <v>43917.3611111111</v>
+        <v>43917.361111111102</v>
       </c>
       <c r="U10" s="22" t="s">
         <v>44</v>
@@ -12226,7 +11623,7 @@
         <v>45</v>
       </c>
       <c r="Z10" s="21">
-        <v>43917.3833333333</v>
+        <v>43917.383333333302</v>
       </c>
       <c r="AA10" s="11" t="s">
         <v>46</v>
@@ -12238,7 +11635,7 @@
         <v>48</v>
       </c>
       <c r="AD10" s="12">
-        <v>43917.4236111111</v>
+        <v>43917.423611111102</v>
       </c>
       <c r="AE10" s="11" t="s">
         <v>46</v>
@@ -12250,7 +11647,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" ht="26" spans="1:33">
+    <row r="11" spans="1:40" ht="25.8">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -12287,7 +11684,7 @@
         <v>43</v>
       </c>
       <c r="T11" s="21">
-        <v>43917.3611111111</v>
+        <v>43917.361111111102</v>
       </c>
       <c r="U11" s="22" t="s">
         <v>44</v>
@@ -12296,7 +11693,7 @@
         <v>45</v>
       </c>
       <c r="Z11" s="21">
-        <v>43917.3833333333</v>
+        <v>43917.383333333302</v>
       </c>
       <c r="AA11" s="11" t="s">
         <v>46</v>
@@ -12308,7 +11705,7 @@
         <v>48</v>
       </c>
       <c r="AD11" s="12">
-        <v>43917.4236111111</v>
+        <v>43917.423611111102</v>
       </c>
       <c r="AE11" s="11" t="s">
         <v>46</v>
@@ -12320,7 +11717,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" ht="26" spans="1:33">
+    <row r="12" spans="1:40" ht="25.8">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -12357,7 +11754,7 @@
         <v>43</v>
       </c>
       <c r="T12" s="21">
-        <v>43917.3611111111</v>
+        <v>43917.361111111102</v>
       </c>
       <c r="U12" s="22" t="s">
         <v>44</v>
@@ -12366,7 +11763,7 @@
         <v>45</v>
       </c>
       <c r="Z12" s="21">
-        <v>43917.3833333333</v>
+        <v>43917.383333333302</v>
       </c>
       <c r="AA12" s="11" t="s">
         <v>46</v>
@@ -12378,7 +11775,7 @@
         <v>48</v>
       </c>
       <c r="AD12" s="12">
-        <v>43917.4236111111</v>
+        <v>43917.423611111102</v>
       </c>
       <c r="AE12" s="11" t="s">
         <v>46</v>
@@ -12390,7 +11787,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" ht="26" spans="1:33">
+    <row r="13" spans="1:40" ht="25.8">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -12424,7 +11821,7 @@
         <v>43</v>
       </c>
       <c r="T13" s="21">
-        <v>43917.3611111111</v>
+        <v>43917.361111111102</v>
       </c>
       <c r="U13" s="22" t="s">
         <v>44</v>
@@ -12433,7 +11830,7 @@
         <v>45</v>
       </c>
       <c r="Z13" s="21">
-        <v>43917.3833333333</v>
+        <v>43917.383333333302</v>
       </c>
       <c r="AA13" s="11" t="s">
         <v>46</v>
@@ -12445,7 +11842,7 @@
         <v>48</v>
       </c>
       <c r="AD13" s="12">
-        <v>43917.4236111111</v>
+        <v>43917.423611111102</v>
       </c>
       <c r="AE13" s="11" t="s">
         <v>46</v>
@@ -12457,7 +11854,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" ht="26" spans="1:33">
+    <row r="14" spans="1:40" ht="25.8">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -12491,7 +11888,7 @@
         <v>43</v>
       </c>
       <c r="T14" s="21">
-        <v>43917.3611111111</v>
+        <v>43917.361111111102</v>
       </c>
       <c r="U14" s="22" t="s">
         <v>44</v>
@@ -12500,7 +11897,7 @@
         <v>45</v>
       </c>
       <c r="Z14" s="21">
-        <v>43917.3833333333</v>
+        <v>43917.383333333302</v>
       </c>
       <c r="AA14" s="11" t="s">
         <v>46</v>
@@ -12512,7 +11909,7 @@
         <v>48</v>
       </c>
       <c r="AD14" s="12">
-        <v>43917.4236111111</v>
+        <v>43917.423611111102</v>
       </c>
       <c r="AE14" s="11" t="s">
         <v>46</v>
@@ -12524,7 +11921,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" ht="26" spans="1:33">
+    <row r="15" spans="1:40" ht="25.8">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -12561,7 +11958,7 @@
         <v>43</v>
       </c>
       <c r="T15" s="21">
-        <v>43917.3611111111</v>
+        <v>43917.361111111102</v>
       </c>
       <c r="U15" s="22" t="s">
         <v>44</v>
@@ -12570,7 +11967,7 @@
         <v>45</v>
       </c>
       <c r="Z15" s="21">
-        <v>43917.3833333333</v>
+        <v>43917.383333333302</v>
       </c>
       <c r="AA15" s="11" t="s">
         <v>46</v>
@@ -12582,7 +11979,7 @@
         <v>48</v>
       </c>
       <c r="AD15" s="12">
-        <v>43917.4236111111</v>
+        <v>43917.423611111102</v>
       </c>
       <c r="AE15" s="11" t="s">
         <v>46</v>
@@ -12594,7 +11991,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" ht="26" spans="1:33">
+    <row r="16" spans="1:40" ht="25.8">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -12628,7 +12025,7 @@
         <v>43</v>
       </c>
       <c r="T16" s="21">
-        <v>43917.3611111111</v>
+        <v>43917.361111111102</v>
       </c>
       <c r="U16" s="22" t="s">
         <v>44</v>
@@ -12637,7 +12034,7 @@
         <v>45</v>
       </c>
       <c r="Z16" s="21">
-        <v>43917.3833333333</v>
+        <v>43917.383333333302</v>
       </c>
       <c r="AA16" s="11" t="s">
         <v>46</v>
@@ -12649,7 +12046,7 @@
         <v>48</v>
       </c>
       <c r="AD16" s="12">
-        <v>43917.4236111111</v>
+        <v>43917.423611111102</v>
       </c>
       <c r="AE16" s="11" t="s">
         <v>46</v>
@@ -12661,7 +12058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" ht="26" spans="1:33">
+    <row r="17" spans="1:33" ht="25.8">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -12695,7 +12092,7 @@
         <v>43</v>
       </c>
       <c r="T17" s="21">
-        <v>43917.3611111111</v>
+        <v>43917.361111111102</v>
       </c>
       <c r="U17" s="22" t="s">
         <v>44</v>
@@ -12704,7 +12101,7 @@
         <v>45</v>
       </c>
       <c r="Z17" s="21">
-        <v>43917.3833333333</v>
+        <v>43917.383333333302</v>
       </c>
       <c r="AA17" s="11" t="s">
         <v>46</v>
@@ -12716,7 +12113,7 @@
         <v>48</v>
       </c>
       <c r="AD17" s="12">
-        <v>43917.4236111111</v>
+        <v>43917.423611111102</v>
       </c>
       <c r="AE17" s="11" t="s">
         <v>46</v>
@@ -12728,7 +12125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:33" ht="16.2">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -12759,7 +12156,7 @@
       </c>
       <c r="T18" s="21"/>
     </row>
-    <row r="19" ht="23" customHeight="1" spans="1:20">
+    <row r="19" spans="1:33" ht="22.95" customHeight="1">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -12786,7 +12183,7 @@
       </c>
       <c r="T19" s="21"/>
     </row>
-    <row r="20" s="11" customFormat="1" ht="23" customHeight="1" spans="1:20">
+    <row r="20" spans="1:33" ht="22.95" customHeight="1">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -12816,7 +12213,7 @@
       </c>
       <c r="T20" s="21"/>
     </row>
-    <row r="21" s="11" customFormat="1" ht="23" customHeight="1" spans="1:20">
+    <row r="21" spans="1:33" ht="22.95" customHeight="1">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -12846,7 +12243,7 @@
       </c>
       <c r="T21" s="21"/>
     </row>
-    <row r="22" s="11" customFormat="1" ht="23" customHeight="1" spans="1:20">
+    <row r="22" spans="1:33" ht="22.95" customHeight="1">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -12879,7 +12276,7 @@
       </c>
       <c r="T22" s="21"/>
     </row>
-    <row r="23" s="11" customFormat="1" ht="23" customHeight="1" spans="1:20">
+    <row r="23" spans="1:33" ht="22.95" customHeight="1">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -12909,7 +12306,7 @@
       </c>
       <c r="T23" s="21"/>
     </row>
-    <row r="24" s="11" customFormat="1" ht="23" customHeight="1" spans="1:20">
+    <row r="24" spans="1:33" ht="22.95" customHeight="1">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -12939,7 +12336,7 @@
       </c>
       <c r="T24" s="21"/>
     </row>
-    <row r="25" s="11" customFormat="1" ht="23" customHeight="1" spans="1:20">
+    <row r="25" spans="1:33" ht="22.95" customHeight="1">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -12972,7 +12369,7 @@
       </c>
       <c r="T25" s="21"/>
     </row>
-    <row r="26" s="11" customFormat="1" ht="23" customHeight="1" spans="1:20">
+    <row r="26" spans="1:33" ht="22.95" customHeight="1">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -13002,7 +12399,7 @@
       </c>
       <c r="T26" s="21"/>
     </row>
-    <row r="27" s="11" customFormat="1" ht="23" customHeight="1" spans="1:20">
+    <row r="27" spans="1:33" ht="22.95" customHeight="1">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -13033,71 +12430,78 @@
       <c r="T27" s="21"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA20 AE20 AK20 AA21 AE21 AK21 AA22 AE22 AK22 AA23 AE23 AK23 AA24 AE24 AK24 AA25 AE25 AK25 AA26 AE26 AK26 AA27 AE27 AK27 AA2:AA19 AA28:AA1048576 AE2:AE19 AE28:AE1048576 AK2:AK19 AK28:AK1048576">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA20 AE20 AK20 AA21 AE21 AK21 AA22 AE22 AK22 AA23 AE23 AK23 AA24 AE24 AK24 AA25 AE25 AK25 AA26 AE26 AK26 AA27 AE27 AK27 AA2:AA19 AA28:AA1048576 AE2:AE19 AE28:AE1048576 AK2:AK19 AK28:AK1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G28:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G28:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 L2:R2 K10 K19 I20:J20 K20 L20:R20 I21:J21 K21 L21:R21 I22:J22 K22 L22:R22 I23:J23 K23 L23:R23 I24:J24 K24 L24:R24 I25:J25 K25 L25:R25 I26:J26 K26 L26:R26 I27:J27 K27 L27:R27 J2:J17 K28:K1048576 L3:L17 N3:N17 P3:R17 I18:J19 L18:R19 I28:J1048576 L28:R1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 L2:R2 K10 K19 I20:J20 K20 L20:R20 I21:J21 K21 L21:R21 I22:J22 K22 L22:R22 I23:J23 K23 L23:R23 I24:J24 K24 L24:R24 I25:J25 K25 L25:R25 I26:J26 K26 L26:R26 I27:J27 K27 L27:R27 J2:J17 K28:K1048576 L3:L17 N3:N17 P3:R17 I18:J19 L18:R19 I28:J1048576 L28:R1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20 H21 H22 H23 H24 H25 H26 H27 H2:H19 H28:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20 H21 H22 H23 H24 H25 H26 H27 H2:H19 H28:H1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F20 F21 F22 F23 F24 F25 F26 F27 F2:F19 F28:F1048576">
-      <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B20 B21 B22 B23 B24 B25 B26 B27 B2:B19 B28:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B20 B21 B22 B23 B24 B25 B26 B27 B2:B19 B28:B1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC20 AC21 AC22 AC23 AC24 AC25 AC26 AC27 AC2:AC19 AC28:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC20 AC21 AC22 AC23 AC24 AC25 AC26 AC27 AC2:AC19 AC28:AC1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG20 AM20 AG21 AM21 AG22 AM22 AG23 AM23 AG24 AM24 AG25 AM25 AG26 AM26 AG27 AM27 AG2:AG19 AG28:AG1048576 AM2:AM19 AM28:AM1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG20 AM20 AG21 AM21 AG22 AM22 AG23 AM23 AG24 AM24 AG25 AM25 AG26 AM26 AG27 AM27 AG2:AG19 AG28:AG1048576 AM2:AM19 AM28:AM1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html"/>
-    <hyperlink ref="V3:V17" r:id="rId2" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html"/>
-    <hyperlink ref="V3" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html"/>
-    <hyperlink ref="V4" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html"/>
-    <hyperlink ref="V5" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html"/>
-    <hyperlink ref="V6" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html"/>
-    <hyperlink ref="V7" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html"/>
-    <hyperlink ref="V8" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html"/>
-    <hyperlink ref="V9" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html"/>
-    <hyperlink ref="V10" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html"/>
-    <hyperlink ref="V11" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html"/>
-    <hyperlink ref="V12" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html"/>
-    <hyperlink ref="V13" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html"/>
-    <hyperlink ref="V14" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html"/>
-    <hyperlink ref="V15" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html"/>
-    <hyperlink ref="V16" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html"/>
-    <hyperlink ref="V17" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html"/>
+    <hyperlink ref="V2" r:id="rId1" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="V3:V17" r:id="rId2" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="V3" r:id="rId3" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="V4" r:id="rId4" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="V5" r:id="rId5" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="V6" r:id="rId6" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="V7" r:id="rId7" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="V8" r:id="rId8" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="V9" r:id="rId9" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="V10" r:id="rId10" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="V11" r:id="rId11" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="V12" r:id="rId12" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="V13" r:id="rId13" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="V14" r:id="rId14" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="V15" r:id="rId15" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="V16" r:id="rId16" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="V17" r:id="rId17" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200327_3058015.html" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>F20 F21 F22 F23 F24 F25 F26 F27 F2:F19 F28:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2907"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="T2" sqref="T2:T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.4615384615385" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -37409,7 +36813,7 @@
       <c r="F1496" s="3"/>
       <c r="AN1496" s="3"/>
     </row>
-    <row r="1497" s="1" customFormat="1" spans="1:40">
+    <row r="1497" spans="1:40" s="1" customFormat="1">
       <c r="A1497" s="7" t="s">
         <v>92</v>
       </c>
@@ -60255,8 +59659,8 @@
       <c r="AN2907" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>